--- a/inst/extdata/input_files/test.xlsx
+++ b/inst/extdata/input_files/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\RTQ_analysis\tests\testthat\input files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\quicR\inst\extdata\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCFFE7B-36A7-48BB-8539-2C16E89FF813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D757EE7-6D1F-470C-A109-56F250F4D6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -631,10 +631,10 @@
     <t>SW_00281</t>
   </si>
   <si>
-    <t>7. Sample IDs</t>
+    <t>8. Dilutions</t>
   </si>
   <si>
-    <t>8. Dilutions</t>
+    <t>7. Sample IDs</t>
   </si>
 </sst>
 </file>
@@ -863,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -919,9 +919,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1206,7 +1203,7 @@
   <dimension ref="A3:O100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3556,7 +3553,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3645,34 +3642,34 @@
       <c r="B83" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G83" s="22" t="s">
+      <c r="G83" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I83" s="22" t="s">
+      <c r="I83" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K83" s="22" t="s">
+      <c r="K83" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L83" s="22" t="s">
+      <c r="L83" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M83" s="12" t="s">
@@ -3686,34 +3683,34 @@
       <c r="B84" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E84" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="F84" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G84" s="22" t="s">
+      <c r="G84" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H84" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I84" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K84" s="22" t="s">
+      <c r="K84" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L84" s="22" t="s">
+      <c r="L84" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M84" s="12" t="s">
@@ -3727,34 +3724,34 @@
       <c r="B85" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="22" t="s">
+      <c r="D85" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="F85" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G85" s="22" t="s">
+      <c r="G85" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H85" s="22" t="s">
+      <c r="H85" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I85" s="22" t="s">
+      <c r="I85" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J85" s="22" t="s">
+      <c r="J85" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K85" s="22" t="s">
+      <c r="K85" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L85" s="22" t="s">
+      <c r="L85" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M85" s="12" t="s">
@@ -3768,34 +3765,34 @@
       <c r="B86" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D86" s="22" t="s">
+      <c r="D86" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="F86" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G86" s="22" t="s">
+      <c r="G86" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H86" s="22" t="s">
+      <c r="H86" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I86" s="22" t="s">
+      <c r="I86" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J86" s="22" t="s">
+      <c r="J86" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K86" s="22" t="s">
+      <c r="K86" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L86" s="22" t="s">
+      <c r="L86" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M86" s="12" t="s">
@@ -3809,34 +3806,34 @@
       <c r="B87" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D87" s="22" t="s">
+      <c r="D87" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="F87" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G87" s="22" t="s">
+      <c r="G87" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I87" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J87" s="22" t="s">
+      <c r="J87" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="K87" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L87" s="22" t="s">
+      <c r="L87" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M87" s="12" t="s">
@@ -3850,34 +3847,34 @@
       <c r="B88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D88" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="F88" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="G88" s="22" t="s">
+      <c r="G88" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H88" s="22" t="s">
+      <c r="H88" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I88" s="22" t="s">
+      <c r="I88" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="J88" s="22" t="s">
+      <c r="J88" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="K88" s="22" t="s">
+      <c r="K88" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L88" s="22" t="s">
+      <c r="L88" s="11" t="s">
         <v>199</v>
       </c>
       <c r="M88" s="12" t="s">
@@ -3927,7 +3924,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4016,34 +4013,34 @@
       <c r="B94" s="3">
         <v>1000</v>
       </c>
-      <c r="C94" s="22">
+      <c r="C94" s="11">
         <v>1</v>
       </c>
-      <c r="D94" s="22">
+      <c r="D94" s="11">
         <v>1</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="11">
         <v>1</v>
       </c>
-      <c r="F94" s="22">
+      <c r="F94" s="11">
         <v>1</v>
       </c>
-      <c r="G94" s="22">
+      <c r="G94" s="11">
         <v>1</v>
       </c>
-      <c r="H94" s="22">
+      <c r="H94" s="11">
         <v>1</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="11">
         <v>1</v>
       </c>
-      <c r="J94" s="22">
+      <c r="J94" s="11">
         <v>1</v>
       </c>
-      <c r="K94" s="22">
+      <c r="K94" s="11">
         <v>1</v>
       </c>
-      <c r="L94" s="22">
+      <c r="L94" s="11">
         <v>1</v>
       </c>
       <c r="M94" s="12">
@@ -4057,34 +4054,34 @@
       <c r="B95" s="3">
         <v>1000</v>
       </c>
-      <c r="C95" s="22">
+      <c r="C95" s="11">
         <v>1</v>
       </c>
-      <c r="D95" s="22">
+      <c r="D95" s="11">
         <v>1</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="11">
         <v>1</v>
       </c>
-      <c r="F95" s="22">
+      <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="22">
+      <c r="G95" s="11">
         <v>1</v>
       </c>
-      <c r="H95" s="22">
+      <c r="H95" s="11">
         <v>1</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="11">
         <v>1</v>
       </c>
-      <c r="J95" s="22">
+      <c r="J95" s="11">
         <v>1</v>
       </c>
-      <c r="K95" s="22">
+      <c r="K95" s="11">
         <v>1</v>
       </c>
-      <c r="L95" s="22">
+      <c r="L95" s="11">
         <v>1</v>
       </c>
       <c r="M95" s="12">
@@ -4098,34 +4095,34 @@
       <c r="B96" s="3">
         <v>1000</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="11">
         <v>1</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="11">
         <v>1</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="11">
         <v>1</v>
       </c>
-      <c r="F96" s="22">
+      <c r="F96" s="11">
         <v>1</v>
       </c>
-      <c r="G96" s="22">
+      <c r="G96" s="11">
         <v>1</v>
       </c>
-      <c r="H96" s="22">
+      <c r="H96" s="11">
         <v>1</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="11">
         <v>1</v>
       </c>
-      <c r="J96" s="22">
+      <c r="J96" s="11">
         <v>1</v>
       </c>
-      <c r="K96" s="22">
+      <c r="K96" s="11">
         <v>1</v>
       </c>
-      <c r="L96" s="22">
+      <c r="L96" s="11">
         <v>1</v>
       </c>
       <c r="M96" s="12">
@@ -4139,34 +4136,34 @@
       <c r="B97" s="3">
         <v>1000</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C97" s="11">
         <v>10</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="11">
         <v>10</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="11">
         <v>10</v>
       </c>
-      <c r="F97" s="22">
+      <c r="F97" s="11">
         <v>10</v>
       </c>
-      <c r="G97" s="22">
+      <c r="G97" s="11">
         <v>10</v>
       </c>
-      <c r="H97" s="22">
+      <c r="H97" s="11">
         <v>10</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="11">
         <v>10</v>
       </c>
-      <c r="J97" s="22">
+      <c r="J97" s="11">
         <v>10</v>
       </c>
-      <c r="K97" s="22">
+      <c r="K97" s="11">
         <v>10</v>
       </c>
-      <c r="L97" s="22">
+      <c r="L97" s="11">
         <v>10</v>
       </c>
       <c r="M97" s="12">
@@ -4180,34 +4177,34 @@
       <c r="B98" s="3">
         <v>1000</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C98" s="11">
         <v>10</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D98" s="11">
         <v>10</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="11">
         <v>10</v>
       </c>
-      <c r="F98" s="22">
+      <c r="F98" s="11">
         <v>10</v>
       </c>
-      <c r="G98" s="22">
+      <c r="G98" s="11">
         <v>10</v>
       </c>
-      <c r="H98" s="22">
+      <c r="H98" s="11">
         <v>10</v>
       </c>
-      <c r="I98" s="22">
+      <c r="I98" s="11">
         <v>10</v>
       </c>
-      <c r="J98" s="22">
+      <c r="J98" s="11">
         <v>10</v>
       </c>
-      <c r="K98" s="22">
+      <c r="K98" s="11">
         <v>10</v>
       </c>
-      <c r="L98" s="22">
+      <c r="L98" s="11">
         <v>10</v>
       </c>
       <c r="M98" s="12">
@@ -4221,34 +4218,34 @@
       <c r="B99" s="3">
         <v>1000</v>
       </c>
-      <c r="C99" s="22">
+      <c r="C99" s="11">
         <v>10</v>
       </c>
-      <c r="D99" s="22">
+      <c r="D99" s="11">
         <v>10</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="11">
         <v>10</v>
       </c>
-      <c r="F99" s="22">
+      <c r="F99" s="11">
         <v>10</v>
       </c>
-      <c r="G99" s="22">
+      <c r="G99" s="11">
         <v>10</v>
       </c>
-      <c r="H99" s="22">
+      <c r="H99" s="11">
         <v>10</v>
       </c>
-      <c r="I99" s="22">
+      <c r="I99" s="11">
         <v>10</v>
       </c>
-      <c r="J99" s="22">
+      <c r="J99" s="11">
         <v>10</v>
       </c>
-      <c r="K99" s="22">
+      <c r="K99" s="11">
         <v>10</v>
       </c>
-      <c r="L99" s="22">
+      <c r="L99" s="11">
         <v>10</v>
       </c>
       <c r="M99" s="12">
